--- a/motmos_zd/Справочники/Настриваемые параметры.xlsx
+++ b/motmos_zd/Справочники/Настриваемые параметры.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9780" windowHeight="4380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6900" windowHeight="816"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="113">
   <si>
     <t>Наименование параметра</t>
   </si>
@@ -111,9 +111,6 @@
     <t>30 минут заправка + 1 час дорога туда/обратно.  + время на поездку до края станции</t>
   </si>
   <si>
-    <t>Период с 11:00 до 13:30     в утреннюю смену и с 23:00 до 01:00 в ночную смену. И перерыв 30 минут в любое время. Периоды обеда должны иметь возможность меняться</t>
-  </si>
-  <si>
     <t>30 минут пересменка + 20 минут дорога туда/обратно. 2 раза в сутки (6:45 до 7:15) и (18:45 до 19:15).  + время на поездку до края станции. Добавить возможность изменять время пересменки</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>В зависимости от количества вагонов</t>
   </si>
   <si>
-    <t>Скорость движения на приемоотправочных путях  (резерв и отправка со станции и прибытие)</t>
-  </si>
-  <si>
     <t>Скорость внутри станции с вагонами</t>
   </si>
   <si>
@@ -186,9 +180,6 @@
     <t>Скорость внутри станции резервом</t>
   </si>
   <si>
-    <t>Длительность обеда, перерыва</t>
-  </si>
-  <si>
     <t>Длительность ожидания получения разрешения на въезд</t>
   </si>
   <si>
@@ -213,9 +204,6 @@
     <t>Длительность дополнительного времени на опробование тормозов состава</t>
   </si>
   <si>
-    <t>Длительность доклада о выполнении работ</t>
-  </si>
-  <si>
     <t>Длительность погрузки/разгрузки одного вагона с трубами</t>
   </si>
   <si>
@@ -241,6 +229,138 @@
   </si>
   <si>
     <t>Вес Трубовоз 13-1796-01</t>
+  </si>
+  <si>
+    <t>Длительность обеда</t>
+  </si>
+  <si>
+    <t>Период с 11:00 до 13:30     в утреннюю смену и с 23:00 до 01:00 в ночную смену.</t>
+  </si>
+  <si>
+    <t>Перерыв 30 минут в любое время. Периоды обеда должны иметь возможность меняться</t>
+  </si>
+  <si>
+    <t>Длительность отдыха</t>
+  </si>
+  <si>
+    <t>Обозначение параметра</t>
+  </si>
+  <si>
+    <t>accelerationTrain</t>
+  </si>
+  <si>
+    <t>delayShiftChange</t>
+  </si>
+  <si>
+    <t>delayEquipTEM9</t>
+  </si>
+  <si>
+    <t>delayEquipTEM2</t>
+  </si>
+  <si>
+    <t>delayEquipTEM18</t>
+  </si>
+  <si>
+    <t>delayEquipTGM4B</t>
+  </si>
+  <si>
+    <t>delayFillingLoco</t>
+  </si>
+  <si>
+    <t>delayDinner</t>
+  </si>
+  <si>
+    <t>delayRest</t>
+  </si>
+  <si>
+    <t>delayEntryPermit</t>
+  </si>
+  <si>
+    <t>delaySwitchService</t>
+  </si>
+  <si>
+    <t>delayTKO</t>
+  </si>
+  <si>
+    <t>reportDelay</t>
+  </si>
+  <si>
+    <t>delayPassOneVagon</t>
+  </si>
+  <si>
+    <t>delayReceivingOrder</t>
+  </si>
+  <si>
+    <t>delayPlacingStops</t>
+  </si>
+  <si>
+    <t>delayExtraCoupDecoup</t>
+  </si>
+  <si>
+    <t>delayCheckBrakes</t>
+  </si>
+  <si>
+    <t>delayCheckTrainBrakes</t>
+  </si>
+  <si>
+    <t>Скорость движения на приемоотправочных путях  (отправка со станции и прибытие)</t>
+  </si>
+  <si>
+    <t>speedInsideReserv</t>
+  </si>
+  <si>
+    <t>speedSendArrive</t>
+  </si>
+  <si>
+    <t>speedInside</t>
+  </si>
+  <si>
+    <t>speedFront</t>
+  </si>
+  <si>
+    <t>delayLoadingPipes8</t>
+  </si>
+  <si>
+    <t>delayLoadingPipes910</t>
+  </si>
+  <si>
+    <t>delayLoadingRolled7</t>
+  </si>
+  <si>
+    <t>delayLoadingScrap10</t>
+  </si>
+  <si>
+    <t>weightPipe01</t>
+  </si>
+  <si>
+    <t>weightPipe03</t>
+  </si>
+  <si>
+    <t>weightPipe08</t>
+  </si>
+  <si>
+    <t>weightPipe63</t>
+  </si>
+  <si>
+    <t>weightGondola</t>
+  </si>
+  <si>
+    <t>weightPlatform</t>
+  </si>
+  <si>
+    <t>weightPipePlatform</t>
+  </si>
+  <si>
+    <t>weightLocoTEM9</t>
+  </si>
+  <si>
+    <t>weightLocoTEM2</t>
+  </si>
+  <si>
+    <t>weightLocoTEM18</t>
+  </si>
+  <si>
+    <t>weightLocoTGM4B</t>
   </si>
 </sst>
 </file>
@@ -270,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -413,11 +533,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -444,6 +603,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -724,652 +893,765 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
         <v>50</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1">
         <v>152.5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1">
         <v>163.5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1">
         <v>163.5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="1">
         <v>164</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="1">
         <v>90</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1">
+        <v>120</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B13" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C18" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="10">
+        <v>15</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="1">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="1">
-        <v>120</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="10">
-        <v>15</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="1">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="1">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F23" s="1"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="1">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="1">
-        <v>57</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="1">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="1">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="1">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="1">
-        <v>54</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="1">
-        <v>60</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>104</v>
+      </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>107</v>
+      </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>108</v>
+      </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>110</v>
+      </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="13"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="13"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="16"/>
+        <v>47</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>112</v>
+      </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F39">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Скорость внутри станции резервом"/>
-        <filter val="Скорость внутри станции с вагонами"/>
-        <filter val="Скорость движения на приемоотправочных путях  (резерв и отправка со станции и прибытие)"/>
-        <filter val="Скороть передвижения на фронтовых (цеховых) путях"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G39"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/motmos_zd/Справочники/Настриваемые параметры.xlsx
+++ b/motmos_zd/Справочники/Настриваемые параметры.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>Наименование параметра</t>
   </si>
@@ -42,9 +42,6 @@
     <t>м/с*2</t>
   </si>
   <si>
-    <t>Да</t>
-  </si>
-  <si>
     <t>Примечание</t>
   </si>
   <si>
@@ -90,21 +87,6 @@
     <t>Время на получение распоряжения от маневрового диспетчера</t>
   </si>
   <si>
-    <t>км/ч</t>
-  </si>
-  <si>
-    <t>Скороть передвижения на фронтовых (цеховых) путях</t>
-  </si>
-  <si>
-    <t>Пути: 1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>Пути: 7,8,9,10</t>
-  </si>
-  <si>
-    <t>часа</t>
-  </si>
-  <si>
     <t>103,5 экипировка + 1 час дорога туда/обратно.  + время на поездку до края станции</t>
   </si>
   <si>
@@ -138,36 +120,6 @@
     <t>В зависимости от количества вагонов</t>
   </si>
   <si>
-    <t>Скорость внутри станции с вагонами</t>
-  </si>
-  <si>
-    <t>Путь 10</t>
-  </si>
-  <si>
-    <t>Путь 7</t>
-  </si>
-  <si>
-    <t>Путь 8</t>
-  </si>
-  <si>
-    <t>Вес полувагона</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вес платформы 13-4012-42 </t>
-  </si>
-  <si>
-    <t>Вес локомотива ТЭМ-9</t>
-  </si>
-  <si>
-    <t>Вес локомотива ТЭМ-2</t>
-  </si>
-  <si>
-    <t>Вес локомотива ТЭМ-18</t>
-  </si>
-  <si>
-    <t>Вес локомотива ТГМ-4Б</t>
-  </si>
-  <si>
     <t>Зависит от количества полурейсов</t>
   </si>
   <si>
@@ -177,18 +129,9 @@
     <t>Зависит от количества вагонов</t>
   </si>
   <si>
-    <t>Скорость внутри станции резервом</t>
-  </si>
-  <si>
     <t>Длительность ожидания получения разрешения на въезд</t>
   </si>
   <si>
-    <t>Длительность обслуживания стрелок</t>
-  </si>
-  <si>
-    <t>Длительность ТКО 1 вагона</t>
-  </si>
-  <si>
     <t>Длительность доклада о выполнении работы</t>
   </si>
   <si>
@@ -204,33 +147,6 @@
     <t>Длительность дополнительного времени на опробование тормозов состава</t>
   </si>
   <si>
-    <t>Длительность погрузки/разгрузки одного вагона с трубами</t>
-  </si>
-  <si>
-    <t>Длительность погрузки/разгрузки одного вагона с ломом негабаритным</t>
-  </si>
-  <si>
-    <t>Длительность погрузки/разгрузки одного вагона со сталью рулонной</t>
-  </si>
-  <si>
-    <t>Путь 9, 10</t>
-  </si>
-  <si>
-    <t>Вес трубной платформы</t>
-  </si>
-  <si>
-    <t>Вес Трубовоз 13-1163</t>
-  </si>
-  <si>
-    <t>Вес Трубовоз 13-4108</t>
-  </si>
-  <si>
-    <t>Вес Трубовоз 13-2118-03</t>
-  </si>
-  <si>
-    <t>Вес Трубовоз 13-1796-01</t>
-  </si>
-  <si>
     <t>Длительность обеда</t>
   </si>
   <si>
@@ -276,12 +192,6 @@
     <t>delayEntryPermit</t>
   </si>
   <si>
-    <t>delaySwitchService</t>
-  </si>
-  <si>
-    <t>delayTKO</t>
-  </si>
-  <si>
     <t>reportDelay</t>
   </si>
   <si>
@@ -301,66 +211,6 @@
   </si>
   <si>
     <t>delayCheckTrainBrakes</t>
-  </si>
-  <si>
-    <t>Скорость движения на приемоотправочных путях  (отправка со станции и прибытие)</t>
-  </si>
-  <si>
-    <t>speedInsideReserv</t>
-  </si>
-  <si>
-    <t>speedSendArrive</t>
-  </si>
-  <si>
-    <t>speedInside</t>
-  </si>
-  <si>
-    <t>speedFront</t>
-  </si>
-  <si>
-    <t>delayLoadingPipes8</t>
-  </si>
-  <si>
-    <t>delayLoadingPipes910</t>
-  </si>
-  <si>
-    <t>delayLoadingRolled7</t>
-  </si>
-  <si>
-    <t>delayLoadingScrap10</t>
-  </si>
-  <si>
-    <t>weightPipe01</t>
-  </si>
-  <si>
-    <t>weightPipe03</t>
-  </si>
-  <si>
-    <t>weightPipe08</t>
-  </si>
-  <si>
-    <t>weightPipe63</t>
-  </si>
-  <si>
-    <t>weightGondola</t>
-  </si>
-  <si>
-    <t>weightPlatform</t>
-  </si>
-  <si>
-    <t>weightPipePlatform</t>
-  </si>
-  <si>
-    <t>weightLocoTEM9</t>
-  </si>
-  <si>
-    <t>weightLocoTEM2</t>
-  </si>
-  <si>
-    <t>weightLocoTEM18</t>
-  </si>
-  <si>
-    <t>weightLocoTGM4B</t>
   </si>
 </sst>
 </file>
@@ -376,21 +226,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -414,16 +258,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -435,7 +309,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -447,88 +321,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -555,19 +354,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -576,43 +362,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -893,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,8 +685,8 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>73</v>
+      <c r="B1" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -927,18 +698,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>74</v>
+      <c r="B2" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -947,710 +718,365 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>75</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="1">
         <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>76</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="1">
         <v>152.5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>77</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C5" s="1">
         <v>163.5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>78</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>163.5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>79</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>164</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>80</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="1">
         <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>81</v>
+        <v>41</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C9" s="1">
         <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>82</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="C10" s="1">
         <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>83</v>
+        <v>35</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>84</v>
+        <v>36</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="C12" s="1">
-        <v>120</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>85</v>
+        <v>33</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>86</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="C14" s="1">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>87</v>
+        <v>37</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="C15" s="1">
-        <v>0.01</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>88</v>
+        <v>38</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="C16" s="1">
-        <v>0.37</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>89</v>
+        <v>39</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="C17" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>90</v>
+        <v>40</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C18" s="1">
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="10">
-        <v>15</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="1">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="1">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="1">
-        <v>57</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="1">
-        <v>23</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="1">
-        <v>54</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="1">
-        <v>60</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G39"/>
+  <autoFilter ref="A1:G18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/motmos_zd/Справочники/Настриваемые параметры.xlsx
+++ b/motmos_zd/Справочники/Настриваемые параметры.xlsx
@@ -667,7 +667,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/motmos_zd/Справочники/Настриваемые параметры.xlsx
+++ b/motmos_zd/Справочники/Настриваемые параметры.xlsx
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/motmos_zd/Справочники/Настриваемые параметры.xlsx
+++ b/motmos_zd/Справочники/Настриваемые параметры.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6900" windowHeight="816"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5424" windowHeight="456"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
   <si>
     <t>Наименование параметра</t>
   </si>
@@ -90,9 +90,6 @@
     <t>103,5 экипировка + 1 час дорога туда/обратно.  + время на поездку до края станции</t>
   </si>
   <si>
-    <t>30 минут заправка + 1 час дорога туда/обратно.  + время на поездку до края станции</t>
-  </si>
-  <si>
     <t>30 минут пересменка + 20 минут дорога туда/обратно. 2 раза в сутки (6:45 до 7:15) и (18:45 до 19:15).  + время на поездку до края станции. Добавить возможность изменять время пересменки</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>103,5 экипировка + 1 час дорога туда/обратно.  + время на поездку до края станции. Есть график экипировик.</t>
   </si>
   <si>
-    <t>104 экипировка + 1 час дорога туда/обратно.  + время на поездку до края станции. Есть график экипировик.</t>
-  </si>
-  <si>
     <t>За 15 метров до ворот останавливаемся</t>
   </si>
   <si>
@@ -211,6 +205,39 @@
   </si>
   <si>
     <t>delayCheckTrainBrakes</t>
+  </si>
+  <si>
+    <t>Время начала утренней пересменки</t>
+  </si>
+  <si>
+    <t>Время начала вечерней пересменки</t>
+  </si>
+  <si>
+    <t>startMorningShift</t>
+  </si>
+  <si>
+    <t>startEveningShift</t>
+  </si>
+  <si>
+    <t>время</t>
+  </si>
+  <si>
+    <t>Утренее время начала приема пищи</t>
+  </si>
+  <si>
+    <t>startMorningDinner</t>
+  </si>
+  <si>
+    <t>startEveningDinner</t>
+  </si>
+  <si>
+    <t>Вечернее время начала приема пищи</t>
+  </si>
+  <si>
+    <t>30 минут заправка + 1 час дорога туда/обратно.  + время на поездку до края станции. Заправка раз в сутки</t>
+  </si>
+  <si>
+    <t>104 экипировка + 1 час дорога туда/обратно.  + время на поездку до края станции. Экипировка раз в неделю</t>
   </si>
 </sst>
 </file>
@@ -234,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -358,11 +385,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -382,6 +431,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -664,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -709,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -718,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="7" t="s">
@@ -730,7 +787,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1">
         <v>50</v>
@@ -739,10 +796,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>16</v>
@@ -753,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>152.5</v>
@@ -762,10 +819,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -776,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>163.5</v>
@@ -785,10 +842,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>16</v>
@@ -799,7 +856,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>163.5</v>
@@ -808,7 +865,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>21</v>
@@ -822,7 +879,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
         <v>164</v>
@@ -831,10 +888,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -845,7 +902,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
         <v>90</v>
@@ -854,10 +911,10 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -865,10 +922,10 @@
     </row>
     <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1">
         <v>60</v>
@@ -877,10 +934,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>17</v>
@@ -888,10 +945,10 @@
     </row>
     <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1">
         <v>30</v>
@@ -900,10 +957,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>17</v>
@@ -911,10 +968,10 @@
     </row>
     <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -923,10 +980,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>18</v>
@@ -934,10 +991,10 @@
     </row>
     <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1">
         <v>0.5</v>
@@ -946,17 +1003,17 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1">
         <v>0.01</v>
@@ -965,10 +1022,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -977,7 +1034,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1">
         <v>0.37</v>
@@ -986,19 +1043,19 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1">
         <v>0.28999999999999998</v>
@@ -1007,19 +1064,19 @@
         <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1">
         <v>1.1000000000000001</v>
@@ -1028,19 +1085,19 @@
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1">
         <v>0.14000000000000001</v>
@@ -1049,19 +1106,19 @@
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -1070,10 +1127,69 @@
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G18"/>

--- a/motmos_zd/Справочники/Настриваемые параметры.xlsx
+++ b/motmos_zd/Справочники/Настриваемые параметры.xlsx
@@ -724,7 +724,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/motmos_zd/Справочники/Настриваемые параметры.xlsx
+++ b/motmos_zd/Справочники/Настриваемые параметры.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
   <si>
     <t>Наименование параметра</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>104 экипировка + 1 час дорога туда/обратно.  + время на поездку до края станции. Экипировка раз в неделю</t>
+  </si>
+  <si>
+    <t>Цикл экипировки</t>
+  </si>
+  <si>
+    <t>Цикл заправка</t>
+  </si>
+  <si>
+    <t>cycleEquip</t>
+  </si>
+  <si>
+    <t>cycleRefuel</t>
   </si>
 </sst>
 </file>
@@ -411,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -441,6 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -721,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1191,6 +1204,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="17">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/motmos_zd/Справочники/Настриваемые параметры.xlsx
+++ b/motmos_zd/Справочники/Настриваемые параметры.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
   <si>
     <t>Наименование параметра</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>cycleRefuel</t>
+  </si>
+  <si>
+    <t>Время поездки за составом</t>
+  </si>
+  <si>
+    <t>timeToPickUp</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -454,6 +460,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -734,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1226,6 +1233,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="18">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/motmos_zd/Справочники/Настриваемые параметры.xlsx
+++ b/motmos_zd/Справочники/Настриваемые параметры.xlsx
@@ -744,7 +744,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
